--- a/models/Multi_dimentional_data_covar/15_Kompetenz_Arbeit_1.xlsx
+++ b/models/Multi_dimentional_data_covar/15_Kompetenz_Arbeit_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -40,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">   14.12.2012</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -117,14 +125,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -132,23 +140,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,7 +200,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,21 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:G289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -515,7 +523,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="3" customFormat="1">
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
@@ -525,7 +533,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -533,12 +541,12 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
@@ -548,7 +556,10 @@
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -562,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="5">
         <v>36630</v>
       </c>
@@ -579,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="5">
         <v>37092</v>
       </c>
@@ -596,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="5">
         <v>37127</v>
       </c>
@@ -613,7 +624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="5">
         <v>37211</v>
       </c>
@@ -630,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="5">
         <v>37239</v>
       </c>
@@ -647,7 +658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="5">
         <v>37274</v>
       </c>
@@ -664,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="5">
         <v>37309</v>
       </c>
@@ -681,7 +692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="5">
         <v>37337</v>
       </c>
@@ -698,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="5">
         <v>37407</v>
       </c>
@@ -715,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="5">
         <v>37435</v>
       </c>
@@ -732,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="5">
         <v>37449</v>
       </c>
@@ -749,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="5">
         <v>37463</v>
       </c>
@@ -766,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5">
         <v>37484</v>
       </c>
@@ -783,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="5">
         <v>37491</v>
       </c>
@@ -800,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" s="5">
         <v>37498</v>
       </c>
@@ -817,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" s="5">
         <v>37505</v>
       </c>
@@ -834,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" s="5">
         <v>37512</v>
       </c>
@@ -851,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" s="5">
         <v>37547</v>
       </c>
@@ -868,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" s="5">
         <v>37575</v>
       </c>
@@ -885,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" s="5">
         <v>37603</v>
       </c>
@@ -902,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" s="5">
         <v>37645</v>
       </c>
@@ -919,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="5">
         <v>37659</v>
       </c>
@@ -936,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="5">
         <v>37673</v>
       </c>
@@ -953,7 +964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="5">
         <v>37694</v>
       </c>
@@ -970,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="5">
         <v>37708</v>
       </c>
@@ -987,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="5">
         <v>37722</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="5">
         <v>37772</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="5">
         <v>37757</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="5">
         <v>37778</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="5">
         <v>37799</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="5">
         <v>37820</v>
       </c>
@@ -1089,7 +1100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" s="5">
         <v>37855</v>
       </c>
@@ -1106,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="B42" s="5">
         <v>37876</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="B43" s="5">
         <v>37904</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="B44" s="5">
         <v>37918</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="B45" s="5">
         <v>37939</v>
       </c>
@@ -1174,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="B46" s="5">
         <v>37953</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="B47" s="5">
         <v>37967</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="B48" s="5">
         <v>38002</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="5">
         <v>38030</v>
       </c>
@@ -1242,7 +1253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="5">
         <v>38051</v>
       </c>
@@ -1259,7 +1270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="5">
         <v>38065</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="5">
         <v>38079</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" s="5">
         <v>38100</v>
       </c>
@@ -1310,7 +1321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="5">
         <v>38121</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="B55" s="5">
         <v>38135</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="B56" s="5">
         <v>38163</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="B57" s="5">
         <v>38177</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6">
       <c r="B58" s="5">
         <v>38191</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6">
       <c r="B59" s="5">
         <v>38226</v>
       </c>
@@ -1412,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6">
       <c r="B60" s="5">
         <v>38254</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6">
       <c r="B61" s="5">
         <v>38275</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="B62" s="5">
         <v>38289</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" s="5">
         <v>38303</v>
       </c>
@@ -1480,7 +1491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="B64" s="5">
         <v>38317</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" s="5">
         <v>38331</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="5">
         <v>38366</v>
       </c>
@@ -1531,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="5">
         <v>38380</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="5">
         <v>38408</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" s="5">
         <v>38429</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" s="5">
         <v>38457</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" s="5">
         <v>38471</v>
       </c>
@@ -1616,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" s="5">
         <v>38499</v>
       </c>
@@ -1633,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" s="5">
         <v>38513</v>
       </c>
@@ -1650,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" s="5">
         <v>38527</v>
       </c>
@@ -1667,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" s="5">
         <v>38541</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" s="5">
         <v>38555</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" s="5">
         <v>38569</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" s="5">
         <v>38576</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" s="5">
         <v>38583</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6">
       <c r="B80" s="5">
         <v>38590</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6">
       <c r="B81" s="5">
         <v>38597</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6">
       <c r="B82" s="5">
         <v>38604</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6">
       <c r="B83" s="5">
         <v>38618</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6">
       <c r="B84" s="5">
         <v>38632</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6">
       <c r="B85" s="5">
         <v>38639</v>
       </c>
@@ -1854,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6">
       <c r="B86" s="5">
         <v>38653</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6">
       <c r="B87" s="5">
         <v>38667</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6">
       <c r="B88" s="5">
         <v>38681</v>
       </c>
@@ -1905,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6">
       <c r="B89" s="5">
         <v>38695</v>
       </c>
@@ -1922,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6">
       <c r="B90" s="5">
         <v>38730</v>
       </c>
@@ -1939,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6">
       <c r="B91" s="5">
         <v>38744</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6">
       <c r="B92" s="5">
         <v>38765</v>
       </c>
@@ -1973,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6">
       <c r="B93" s="5">
         <v>38786</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="B94" s="5">
         <v>38814</v>
       </c>
@@ -2007,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6">
       <c r="B95" s="5">
         <v>38835</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6">
       <c r="B96" s="5">
         <v>38856</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6">
       <c r="B97" s="5">
         <v>38884</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6">
       <c r="B98" s="5">
         <v>38912</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6">
       <c r="B99" s="5">
         <v>38947</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6">
       <c r="B100" s="5">
         <v>38961</v>
       </c>
@@ -2109,7 +2120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6">
       <c r="B101" s="5">
         <v>38989</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6">
       <c r="B102" s="5">
         <v>39003</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6">
       <c r="B103" s="5">
         <v>39017</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6">
       <c r="B104" s="5">
         <v>39031</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6">
       <c r="B105" s="5">
         <v>39045</v>
       </c>
@@ -2194,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6">
       <c r="B106" s="5">
         <v>39066</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6">
       <c r="B107" s="5">
         <v>39094</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6">
       <c r="B108" s="5">
         <v>39122</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6">
       <c r="B109" s="5">
         <v>39143</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6">
       <c r="B110" s="5">
         <v>39157</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6">
       <c r="B111" s="5">
         <v>39171</v>
       </c>
@@ -2296,7 +2307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6">
       <c r="B112" s="5">
         <v>39192</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6">
       <c r="B113" s="5">
         <v>39220</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6">
       <c r="B114" s="5">
         <v>39234</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6">
       <c r="B115" s="5">
         <v>39255</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6">
       <c r="B116" s="5">
         <v>39283</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6">
       <c r="B117" s="5">
         <v>39311</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6">
       <c r="B118" s="5">
         <v>39339</v>
       </c>
@@ -2415,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6">
       <c r="B119" s="5">
         <v>39360</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6">
       <c r="B120" s="5">
         <v>39374</v>
       </c>
@@ -2449,7 +2460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6">
       <c r="B121" s="5">
         <v>39395</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6">
       <c r="B122" s="5">
         <v>39409</v>
       </c>
@@ -2483,7 +2494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6">
       <c r="B123" s="5">
         <v>39430</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6">
       <c r="B124" s="5">
         <v>39458</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6">
       <c r="B125" s="5">
         <v>39486</v>
       </c>
@@ -2534,7 +2545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6">
       <c r="B126" s="5">
         <v>39507</v>
       </c>
@@ -2551,7 +2562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6">
       <c r="B127" s="5">
         <v>39521</v>
       </c>
@@ -2568,7 +2579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6">
       <c r="B128" s="5">
         <v>39542</v>
       </c>
@@ -2585,7 +2596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:6">
       <c r="B129" s="5">
         <v>39556</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:6">
       <c r="B130" s="5">
         <v>39577</v>
       </c>
@@ -2619,7 +2630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:6">
       <c r="B131" s="5">
         <v>39598</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:6">
       <c r="B132" s="5">
         <v>39612</v>
       </c>
@@ -2653,7 +2664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:6">
       <c r="B133" s="5">
         <v>39640</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:6">
       <c r="B134" s="5">
         <v>39675</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:6">
       <c r="B135" s="5">
         <v>39703</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6">
       <c r="B136" s="5">
         <v>39731</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6">
       <c r="B137" s="5">
         <v>39745</v>
       </c>
@@ -2738,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6">
       <c r="B138" s="5">
         <v>39759</v>
       </c>
@@ -2755,7 +2766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6">
       <c r="B139" s="5">
         <v>39773</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6">
       <c r="B140" s="5">
         <v>39794</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6">
       <c r="B141" s="5">
         <v>39822</v>
       </c>
@@ -2806,7 +2817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6">
       <c r="B142" s="5">
         <v>39843</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:6">
       <c r="B143" s="5">
         <v>39857</v>
       </c>
@@ -2840,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6">
       <c r="B144" s="5">
         <v>39878</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6">
       <c r="B145" s="5">
         <v>39899</v>
       </c>
@@ -2874,7 +2885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6">
       <c r="B146" s="5">
         <v>39927</v>
       </c>
@@ -2891,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6">
       <c r="B147" s="5">
         <v>39941</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6">
       <c r="B148" s="5">
         <v>39962</v>
       </c>
@@ -2925,7 +2936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6">
       <c r="B149" s="5">
         <v>39976</v>
       </c>
@@ -2942,7 +2953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6">
       <c r="B150" s="5">
         <v>39997</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6">
       <c r="B151" s="5">
         <v>40018</v>
       </c>
@@ -2976,7 +2987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6">
       <c r="B152" s="5">
         <v>40032</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6">
       <c r="B153" s="5">
         <v>40046</v>
       </c>
@@ -3010,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6">
       <c r="B154" s="5">
         <v>40053</v>
       </c>
@@ -3027,7 +3038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6">
       <c r="B155" s="5">
         <v>40060</v>
       </c>
@@ -3044,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6">
       <c r="B156" s="5">
         <v>40067</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6">
       <c r="B157" s="5">
         <v>40074</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6">
       <c r="B158" s="5">
         <v>40088</v>
       </c>
@@ -3095,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6">
       <c r="B159" s="5">
         <v>40102</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6">
       <c r="B160" s="5">
         <v>40116</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6">
       <c r="B161" s="5">
         <v>40144</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6">
       <c r="B162" s="5">
         <v>40158</v>
       </c>
@@ -3163,7 +3174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6">
       <c r="B163" s="5">
         <v>40193</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6">
       <c r="B164" s="5">
         <v>40207</v>
       </c>
@@ -3197,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6">
       <c r="B165" s="5">
         <v>40235</v>
       </c>
@@ -3214,7 +3225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6">
       <c r="B166" s="5">
         <v>40249</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6">
       <c r="B167" s="5">
         <v>40263</v>
       </c>
@@ -3248,7 +3259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6">
       <c r="B168" s="5">
         <v>40291</v>
       </c>
@@ -3265,7 +3276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6">
       <c r="B169" s="5">
         <v>40319</v>
       </c>
@@ -3282,7 +3293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6">
       <c r="B170" s="5">
         <v>40333</v>
       </c>
@@ -3299,7 +3310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6">
       <c r="B171" s="5">
         <v>40347</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6">
       <c r="B172" s="5">
         <v>40375</v>
       </c>
@@ -3333,7 +3344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6">
       <c r="B173" s="5">
         <v>40417</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6">
       <c r="B174" s="5">
         <v>40431</v>
       </c>
@@ -3367,7 +3378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6">
       <c r="B175" s="5">
         <v>40445</v>
       </c>
@@ -3384,7 +3395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6">
       <c r="B176" s="5">
         <v>40452</v>
       </c>
@@ -3401,7 +3412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6">
       <c r="B177" s="5">
         <v>40473</v>
       </c>
@@ -3418,7 +3429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6">
       <c r="B178" s="5">
         <v>40494</v>
       </c>
@@ -3435,7 +3446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:6">
       <c r="B179" s="5">
         <v>40515</v>
       </c>
@@ -3452,7 +3463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6">
       <c r="B180" s="5">
         <v>40529</v>
       </c>
@@ -3469,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:6">
       <c r="B181" s="5">
         <v>40557</v>
       </c>
@@ -3486,7 +3497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6">
       <c r="B182" s="5">
         <v>40571</v>
       </c>
@@ -3503,7 +3514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6">
       <c r="B183" s="5">
         <v>40585</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6">
       <c r="B184" s="5">
         <v>40599</v>
       </c>
@@ -3537,7 +3548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:6">
       <c r="B185" s="5">
         <v>40634</v>
       </c>
@@ -3554,7 +3565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6">
       <c r="B186" s="5">
         <v>40648</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6">
       <c r="B187" s="5">
         <v>40669</v>
       </c>
@@ -3588,7 +3599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6">
       <c r="B188" s="5">
         <v>40690</v>
       </c>
@@ -3605,7 +3616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6">
       <c r="B189" s="5">
         <v>40704</v>
       </c>
@@ -3622,7 +3633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6">
       <c r="B190" s="5">
         <v>40739</v>
       </c>
@@ -3639,7 +3650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6">
       <c r="B191" s="5">
         <v>40767</v>
       </c>
@@ -3656,7 +3667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6">
       <c r="B192" s="5">
         <v>40795</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:6">
       <c r="B193" s="5">
         <v>40809</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:6">
       <c r="B194" s="5">
         <v>40830</v>
       </c>
@@ -3707,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:6">
       <c r="B195" s="5">
         <v>40844</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:6">
       <c r="B196" s="5">
         <v>40858</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:6">
       <c r="B197" s="5">
         <v>40872</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:6">
       <c r="B198" s="5">
         <v>40893</v>
       </c>
@@ -3775,7 +3786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:6">
       <c r="B199" s="5">
         <v>40921</v>
       </c>
@@ -3792,7 +3803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:6">
       <c r="B200" s="5">
         <v>40935</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:6">
       <c r="B201" s="5">
         <v>40949</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:6">
       <c r="B202" s="5">
         <v>40977</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:6">
       <c r="B203" s="5">
         <v>40998</v>
       </c>
@@ -3860,7 +3871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:6">
       <c r="B204" s="5">
         <v>41026</v>
       </c>
@@ -3877,7 +3888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:6">
       <c r="B205" s="5">
         <v>41054</v>
       </c>
@@ -3894,7 +3905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:6">
       <c r="B206" s="5">
         <v>41075</v>
       </c>
@@ -3911,7 +3922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:6">
       <c r="B207" s="5">
         <v>41103</v>
       </c>
@@ -3928,7 +3939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:6" s="4" customFormat="1">
       <c r="B208" s="5">
         <v>41145</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" s="4" customFormat="1">
       <c r="B209" s="5">
         <v>41166</v>
       </c>
@@ -3962,7 +3973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6">
       <c r="B210" s="7">
         <v>41180</v>
       </c>
@@ -3979,7 +3990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6">
       <c r="B211" s="7">
         <v>41193</v>
       </c>
@@ -3996,7 +4007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6">
       <c r="B212" s="7">
         <v>41208</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6">
       <c r="B213" s="7">
         <v>41229</v>
       </c>
@@ -4030,7 +4041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6">
       <c r="B214" s="10">
         <v>41243</v>
       </c>
@@ -4047,7 +4058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6">
       <c r="B215" s="9" t="s">
         <v>7</v>
       </c>
@@ -4064,7 +4075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6">
       <c r="B216" s="10">
         <v>41285</v>
       </c>
@@ -4081,7 +4092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6">
       <c r="B217" s="10">
         <v>41299</v>
       </c>
@@ -4098,7 +4109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6">
       <c r="B218" s="10">
         <v>41327</v>
       </c>
@@ -4115,7 +4126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6">
       <c r="B219" s="10">
         <v>41341</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6">
       <c r="B220" s="10">
         <v>41355</v>
       </c>
@@ -4149,7 +4160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6">
       <c r="B221" s="10">
         <v>41376</v>
       </c>
@@ -4166,7 +4177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6">
       <c r="B222" s="10">
         <v>41390</v>
       </c>
@@ -4183,7 +4194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6">
       <c r="B223" s="10">
         <v>41411</v>
       </c>
@@ -4200,7 +4211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6">
       <c r="B224" s="10">
         <v>41432</v>
       </c>
@@ -4217,7 +4228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:6">
       <c r="B225" s="10">
         <v>41453</v>
       </c>
@@ -4234,7 +4245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:6">
       <c r="B226" s="10">
         <v>41467</v>
       </c>
@@ -4251,7 +4262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:6">
       <c r="B227" s="10">
         <v>41488</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:6">
       <c r="B228" s="10">
         <v>41502</v>
       </c>
@@ -4285,7 +4296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:6">
       <c r="B229" s="10">
         <v>41509</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:6">
       <c r="B230" s="10">
         <v>41515</v>
       </c>
@@ -4319,7 +4330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:6">
       <c r="B231" s="10">
         <v>41522</v>
       </c>
@@ -4336,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:6" s="12" customFormat="1">
       <c r="B232" s="5">
         <v>41530</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:6">
       <c r="B233" s="10">
         <v>41544</v>
       </c>
@@ -4370,7 +4381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:6">
       <c r="B234" s="10">
         <v>41565</v>
       </c>
@@ -4387,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:6">
       <c r="B235" s="10">
         <v>41586</v>
       </c>
@@ -4404,7 +4415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:6">
       <c r="B236" s="10">
         <v>41607</v>
       </c>
@@ -4421,7 +4432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:6">
       <c r="B237" s="10">
         <v>41621</v>
       </c>
@@ -4438,7 +4449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:6">
       <c r="B238" s="13">
         <v>41656</v>
       </c>
@@ -4455,7 +4466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:6">
       <c r="B239" s="10">
         <v>41670</v>
       </c>
@@ -4472,7 +4483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:6">
       <c r="B240" s="10">
         <v>41691</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6">
       <c r="B241" s="13">
         <v>41712</v>
       </c>
@@ -4506,7 +4517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6">
       <c r="B242" s="13">
         <v>41726</v>
       </c>
@@ -4523,7 +4534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6">
       <c r="B243" s="10">
         <v>41740</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6">
       <c r="B244" s="10">
         <v>41768</v>
       </c>
@@ -4557,7 +4568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6">
       <c r="B245" s="10">
         <v>41795</v>
       </c>
@@ -4574,7 +4585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6">
       <c r="B246" s="10">
         <v>41817</v>
       </c>
@@ -4591,7 +4602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6">
       <c r="B247" s="10">
         <v>41838</v>
       </c>
@@ -4608,7 +4619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:6">
       <c r="B248" s="10">
         <v>41873</v>
       </c>
@@ -4625,7 +4636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6">
       <c r="B249" s="10">
         <v>41887</v>
       </c>
@@ -4642,7 +4653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:6">
       <c r="B250" s="10">
         <v>41908</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:6">
       <c r="B251" s="10">
         <v>41922</v>
       </c>
@@ -4676,7 +4687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6">
       <c r="B252" s="10">
         <v>41936</v>
       </c>
@@ -4693,7 +4704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:6">
       <c r="B253" s="10">
         <v>41957</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:6">
       <c r="B254" s="10">
         <v>41971</v>
       </c>
@@ -4727,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6">
       <c r="B255" s="10">
         <v>41985</v>
       </c>
@@ -4744,7 +4755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6">
       <c r="B256" s="10">
         <v>42020</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:6">
       <c r="B257" s="10">
         <v>42034</v>
       </c>
@@ -4778,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:6">
       <c r="B258" s="10">
         <v>42062</v>
       </c>
@@ -4795,7 +4806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:6">
       <c r="B259" s="10">
         <v>42076</v>
       </c>
@@ -4812,7 +4823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:6">
       <c r="B260" s="10">
         <v>42090</v>
       </c>
@@ -4829,7 +4840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:6">
       <c r="B261" s="10">
         <v>42111</v>
       </c>
@@ -4846,7 +4857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:6">
       <c r="B262" s="10">
         <v>42146</v>
       </c>
@@ -4863,7 +4874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:6">
       <c r="B263" s="10">
         <v>42167</v>
       </c>
@@ -4880,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:6">
       <c r="B264" s="10">
         <v>42188</v>
       </c>
@@ -4897,7 +4908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:6">
       <c r="B265" s="10">
         <v>42209</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:6">
       <c r="B266" s="13">
         <v>42237</v>
       </c>
@@ -4931,7 +4942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:6">
       <c r="B267" s="10">
         <v>42258</v>
       </c>
@@ -4948,7 +4959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:6">
       <c r="B268" s="5">
         <v>42272</v>
       </c>
@@ -4965,7 +4976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:6">
       <c r="B269" s="10">
         <v>42286</v>
       </c>
@@ -4982,7 +4993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:6">
       <c r="B270" s="10">
         <v>42300</v>
       </c>
@@ -4999,7 +5010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:6">
       <c r="B271" s="10">
         <v>42321</v>
       </c>
@@ -5016,7 +5027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:6">
       <c r="B272" s="10">
         <v>42335</v>
       </c>
@@ -5033,7 +5044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6">
       <c r="B273" s="10">
         <v>42349</v>
       </c>
@@ -5050,7 +5061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:6">
       <c r="B274" s="10">
         <v>42384</v>
       </c>
@@ -5067,7 +5078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:6">
       <c r="B275" s="10">
         <v>42419</v>
       </c>
@@ -5084,7 +5095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:6">
       <c r="B276" s="10">
         <v>42447</v>
       </c>
@@ -5101,7 +5112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:6">
       <c r="B277" s="10">
         <v>42468</v>
       </c>
@@ -5118,7 +5129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:6">
       <c r="B278" s="10">
         <v>42503</v>
       </c>
@@ -5135,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:6">
       <c r="B279" s="10">
         <v>42524</v>
       </c>
@@ -5152,7 +5163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:6">
       <c r="B280" s="10">
         <v>42573</v>
       </c>
@@ -5169,7 +5180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:6">
       <c r="B281" s="10">
         <v>42594</v>
       </c>
@@ -5186,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:6">
       <c r="B282" s="10">
         <v>42636</v>
       </c>
@@ -5203,7 +5214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:6">
       <c r="B283" s="10">
         <v>42657</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:6">
       <c r="B284" s="10">
         <v>42685</v>
       </c>
@@ -5237,7 +5248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:6">
       <c r="B285" s="10">
         <v>42713</v>
       </c>
@@ -5254,7 +5265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:6">
       <c r="B286" s="10">
         <v>42748</v>
       </c>
@@ -5271,7 +5282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:6">
       <c r="B287" s="13">
         <v>42783</v>
       </c>
@@ -5288,7 +5299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:6">
       <c r="B288" s="10">
         <v>42804</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:6">
       <c r="B289" s="10">
         <v>42832</v>
       </c>
@@ -5331,35 +5342,50 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>